--- a/docs/slot-bundle.xlsx
+++ b/docs/slot-bundle.xlsx
@@ -407,7 +407,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>Entry Slice</t>
+    <t>entryslices</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource, or information</t>
@@ -684,7 +684,7 @@
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.</t>
   </si>
   <si>
-    <t>Appt Slice</t>
+    <t>entryappt</t>
   </si>
   <si>
     <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/prefetch-slot}
@@ -701,7 +701,7 @@
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="match"/&gt;</t>
   </si>
   <si>
-    <t>OO Slice</t>
+    <t>entryoo</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome

--- a/docs/slot-bundle.xlsx
+++ b/docs/slot-bundle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="225">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>Bundle.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Bundle.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>Bundle.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -251,7 +251,7 @@
     <t>Bundle.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
     <t>Bundle.total</t>
   </si>
   <si>
-    <t xml:space="preserve">unsignedInt
+    <t xml:space="preserve">unsignedInt {[]} {[]}
 </t>
   </si>
   <si>
@@ -314,7 +314,7 @@
     <t>Bundle.link</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -331,7 +331,7 @@
     <t>Bundle.link.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>Bundle.entry</t>
-  </si>
-  <si>
-    <t>entryslices</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource, or information</t>
@@ -462,7 +459,7 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -515,7 +512,7 @@
     <t>Bundle.entry.search.score</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal
+    <t xml:space="preserve">decimal {[]} {[]}
 </t>
   </si>
   <si>
@@ -589,7 +586,7 @@
     <t>Bundle.entry.request.ifModifiedSince</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -687,24 +684,17 @@
     <t>entryappt</t>
   </si>
   <si>
-    <t xml:space="preserve">Appointment {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/prefetch-slot}
+    <t xml:space="preserve">Appointment {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/prefetch-slot]]} {[]}
 </t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
-  </si>
-  <si>
-    <t>workflow.scheduling</t>
-  </si>
-  <si>
     <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="match"/&gt;</t>
   </si>
   <si>
     <t>entryoo</t>
   </si>
   <si>
-    <t xml:space="preserve">OperationOutcome
+    <t xml:space="preserve">OperationOutcome {[]} {[]}
 </t>
   </si>
   <si>
@@ -714,7 +704,7 @@
     <t>Bundle.signature</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature
+    <t xml:space="preserve">Signature {[]} {[]}
 </t>
   </si>
   <si>
@@ -2545,9 +2535,7 @@
       <c r="A16" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2571,10 +2559,10 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2613,14 +2601,14 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>124</v>
@@ -2635,7 +2623,7 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>39</v>
@@ -2649,7 +2637,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2755,7 +2743,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2863,7 +2851,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2971,7 +2959,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2997,10 +2985,10 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3051,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3077,7 +3065,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3103,13 +3091,13 @@
         <v>61</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3159,7 +3147,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3185,7 +3173,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3208,13 +3196,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3265,7 +3253,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3291,7 +3279,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3317,10 +3305,10 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3371,7 +3359,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3380,7 +3368,7 @@
         <v>48</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -3397,7 +3385,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3503,7 +3491,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3611,7 +3599,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3719,7 +3707,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3745,13 +3733,13 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3780,11 +3768,11 @@
         <v>85</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3801,7 +3789,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3827,7 +3815,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3850,16 +3838,16 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3909,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3935,7 +3923,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3961,10 +3949,10 @@
         <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4015,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4024,7 +4012,7 @@
         <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
@@ -4041,7 +4029,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4147,7 +4135,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4255,7 +4243,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4363,7 +4351,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4389,10 +4377,10 @@
         <v>67</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4422,11 +4410,11 @@
         <v>85</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4443,7 +4431,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -4469,7 +4457,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4495,13 +4483,13 @@
         <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4551,7 +4539,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>48</v>
@@ -4577,7 +4565,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4603,10 +4591,10 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4657,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4683,7 +4671,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4706,13 +4694,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4763,7 +4751,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4789,7 +4777,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4815,10 +4803,10 @@
         <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4869,7 +4857,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4895,7 +4883,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4921,10 +4909,10 @@
         <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4975,7 +4963,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5001,7 +4989,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5027,10 +5015,10 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5081,16 +5069,16 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -5107,7 +5095,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5213,7 +5201,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5321,7 +5309,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5429,7 +5417,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5455,10 +5443,10 @@
         <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5509,7 +5497,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>48</v>
@@ -5535,7 +5523,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5561,10 +5549,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5615,7 +5603,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5641,7 +5629,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5667,13 +5655,13 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -5723,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5749,7 +5737,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5772,16 +5760,16 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5831,7 +5819,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -5857,7 +5845,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5880,16 +5868,16 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -5939,7 +5927,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -5968,7 +5956,7 @@
         <v>124</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -5993,10 +5981,10 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6059,7 +6047,7 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>39</v>
@@ -6073,7 +6061,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6179,7 +6167,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6287,7 +6275,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6395,7 +6383,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6421,10 +6409,10 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6475,7 +6463,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6501,7 +6489,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6527,13 +6515,13 @@
         <v>61</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6583,7 +6571,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6609,7 +6597,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6629,16 +6617,16 @@
         <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6689,7 +6677,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -6701,21 +6689,21 @@
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6741,10 +6729,10 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6795,7 +6783,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -6804,7 +6792,7 @@
         <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>99</v>
@@ -6821,7 +6809,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6927,7 +6915,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7035,7 +7023,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7143,7 +7131,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7169,13 +7157,13 @@
         <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7183,7 +7171,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>39</v>
@@ -7204,11 +7192,11 @@
         <v>85</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
       </c>
@@ -7225,7 +7213,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7251,7 +7239,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7274,16 +7262,16 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7333,7 +7321,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7359,7 +7347,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7385,10 +7373,10 @@
         <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7439,7 +7427,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7448,7 +7436,7 @@
         <v>48</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
@@ -7465,7 +7453,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7571,7 +7559,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7679,7 +7667,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7787,7 +7775,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7813,10 +7801,10 @@
         <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7846,11 +7834,11 @@
         <v>85</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>39</v>
       </c>
@@ -7867,7 +7855,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>48</v>
@@ -7893,7 +7881,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7919,13 +7907,13 @@
         <v>61</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -7975,7 +7963,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>48</v>
@@ -8001,7 +7989,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8027,10 +8015,10 @@
         <v>101</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8081,7 +8069,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8107,7 +8095,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8130,13 +8118,13 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8187,7 +8175,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8213,7 +8201,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8239,10 +8227,10 @@
         <v>101</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8293,7 +8281,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8319,7 +8307,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8345,10 +8333,10 @@
         <v>101</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8399,7 +8387,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8425,7 +8413,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8451,10 +8439,10 @@
         <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8505,16 +8493,16 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -8531,7 +8519,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8637,7 +8625,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8745,7 +8733,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8853,7 +8841,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8879,10 +8867,10 @@
         <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8933,7 +8921,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>48</v>
@@ -8959,7 +8947,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8985,10 +8973,10 @@
         <v>61</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9039,7 +9027,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9065,7 +9053,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9091,13 +9079,13 @@
         <v>101</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9147,7 +9135,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9173,7 +9161,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9196,16 +9184,16 @@
         <v>49</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9255,7 +9243,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -9281,7 +9269,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9304,16 +9292,16 @@
         <v>49</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9363,7 +9351,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -9392,7 +9380,7 @@
         <v>124</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>39</v>
@@ -9417,10 +9405,10 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9483,7 +9471,7 @@
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>39</v>
@@ -9497,7 +9485,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9603,7 +9591,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9711,7 +9699,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9819,7 +9807,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9845,10 +9833,10 @@
         <v>39</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9899,7 +9887,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -9925,7 +9913,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9951,13 +9939,13 @@
         <v>61</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10007,7 +9995,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10033,7 +10021,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10056,13 +10044,13 @@
         <v>49</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10113,7 +10101,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10139,7 +10127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10165,10 +10153,10 @@
         <v>96</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10219,7 +10207,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -10228,7 +10216,7 @@
         <v>48</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>99</v>
@@ -10245,7 +10233,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10351,7 +10339,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10459,7 +10447,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10567,7 +10555,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10593,13 +10581,13 @@
         <v>67</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -10607,7 +10595,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -10628,11 +10616,11 @@
         <v>85</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>39</v>
       </c>
@@ -10649,7 +10637,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -10675,7 +10663,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10698,16 +10686,16 @@
         <v>49</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -10757,7 +10745,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -10783,7 +10771,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10809,10 +10797,10 @@
         <v>96</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -10863,7 +10851,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -10872,7 +10860,7 @@
         <v>48</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>99</v>
@@ -10889,7 +10877,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10995,7 +10983,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11103,7 +11091,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11211,7 +11199,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11237,10 +11225,10 @@
         <v>67</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11270,11 +11258,11 @@
         <v>85</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
       </c>
@@ -11291,7 +11279,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>48</v>
@@ -11317,7 +11305,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11343,13 +11331,13 @@
         <v>61</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -11399,7 +11387,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>48</v>
@@ -11425,7 +11413,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11451,10 +11439,10 @@
         <v>101</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -11505,7 +11493,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -11531,7 +11519,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11554,13 +11542,13 @@
         <v>49</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -11611,7 +11599,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -11637,7 +11625,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11663,10 +11651,10 @@
         <v>101</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11717,7 +11705,7 @@
         <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -11743,7 +11731,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11769,10 +11757,10 @@
         <v>101</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11823,7 +11811,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -11849,7 +11837,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -11875,10 +11863,10 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -11929,16 +11917,16 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH103" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>99</v>
@@ -11955,7 +11943,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12061,7 +12049,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12169,7 +12157,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12277,7 +12265,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12303,10 +12291,10 @@
         <v>101</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -12357,7 +12345,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>48</v>
@@ -12383,7 +12371,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12409,10 +12397,10 @@
         <v>61</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -12463,7 +12451,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -12489,7 +12477,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -12515,13 +12503,13 @@
         <v>101</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -12571,7 +12559,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -12597,7 +12585,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -12620,16 +12608,16 @@
         <v>49</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -12679,7 +12667,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -12705,7 +12693,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -12728,16 +12716,16 @@
         <v>49</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -12787,7 +12775,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -12813,7 +12801,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -12836,19 +12824,19 @@
         <v>49</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>39</v>
@@ -12897,7 +12885,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
